--- a/src/main/resources/static/excelFile/机台类型维护模板.xlsx
+++ b/src/main/resources/static/excelFile/机台类型维护模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hjj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\huayu_mes\src\main\resources\static\excelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48D294A-D9F6-4CE4-80CE-CCE53AB17FD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F8F4D2-F8D7-4748-B977-2FCEAEB8941C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="180" windowWidth="17565" windowHeight="9990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="机台类型" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,14 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>工作中心编码</t>
-  </si>
-  <si>
     <t>机台编码</t>
   </si>
   <si>
     <t>机台描述</t>
+  </si>
+  <si>
+    <t>工作中心名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -397,25 +398,25 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.75" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
